--- a/widetable/package/mics_dictionary_setcode.xlsx
+++ b/widetable/package/mics_dictionary_setcode.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\taiku\Documents\GEM UNESCO MBR\GitHub\wide2020\widetable\package\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ado\personal\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="605" firstSheet="12" activeTab="19"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="605"/>
   </bookViews>
   <sheets>
     <sheet name="dictionary" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2676" uniqueCount="515">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2717" uniqueCount="525">
   <si>
     <t>original_name</t>
   </si>
@@ -1583,6 +1583,36 @@
   </si>
   <si>
     <t>CentralAfricanRepublic_2018</t>
+  </si>
+  <si>
+    <t>Nepal_2019</t>
+  </si>
+  <si>
+    <t>Attended school previous school year</t>
+  </si>
+  <si>
+    <t>Level of education attended previous school year</t>
+  </si>
+  <si>
+    <t>Grade of education attended previous school year</t>
+  </si>
+  <si>
+    <t>Highest grade attended at that level</t>
+  </si>
+  <si>
+    <t>Ever completed that grade/year</t>
+  </si>
+  <si>
+    <t>Check: ever attended school or any early childhood education programme</t>
+  </si>
+  <si>
+    <t>Grade attended at that level during current school year</t>
+  </si>
+  <si>
+    <t>Grade attended at that level during previous school year</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Subregion </t>
   </si>
 </sst>
 </file>
@@ -1913,8 +1943,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H64"/>
   <sheetViews>
-    <sheetView topLeftCell="A52" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E65" sqref="E65"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -2285,6 +2315,9 @@
       <c r="B22" t="s">
         <v>42</v>
       </c>
+      <c r="C22" t="s">
+        <v>516</v>
+      </c>
       <c r="D22" t="s">
         <v>42</v>
       </c>
@@ -2305,6 +2338,9 @@
       <c r="B23" t="s">
         <v>43</v>
       </c>
+      <c r="C23" t="s">
+        <v>517</v>
+      </c>
       <c r="D23" t="s">
         <v>43</v>
       </c>
@@ -2325,6 +2361,9 @@
       <c r="B24" t="s">
         <v>44</v>
       </c>
+      <c r="C24" t="s">
+        <v>518</v>
+      </c>
       <c r="D24" t="s">
         <v>44</v>
       </c>
@@ -2361,6 +2400,9 @@
       <c r="B27" t="s">
         <v>48</v>
       </c>
+      <c r="C27" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
@@ -2369,6 +2411,9 @@
       <c r="B28" t="s">
         <v>48</v>
       </c>
+      <c r="C28" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
@@ -2400,6 +2445,9 @@
       <c r="B30" t="s">
         <v>48</v>
       </c>
+      <c r="C30" t="s">
+        <v>50</v>
+      </c>
       <c r="H30" t="s">
         <v>52</v>
       </c>
@@ -2708,6 +2756,9 @@
       <c r="B52" t="s">
         <v>88</v>
       </c>
+      <c r="C52" t="s">
+        <v>27</v>
+      </c>
       <c r="F52">
         <v>1</v>
       </c>
@@ -2722,6 +2773,9 @@
       <c r="B53" t="s">
         <v>90</v>
       </c>
+      <c r="C53" t="s">
+        <v>519</v>
+      </c>
       <c r="F53">
         <v>1</v>
       </c>
@@ -2736,6 +2790,9 @@
       <c r="B54" t="s">
         <v>91</v>
       </c>
+      <c r="C54" t="s">
+        <v>520</v>
+      </c>
       <c r="F54">
         <v>1</v>
       </c>
@@ -2750,6 +2807,9 @@
       <c r="B55" t="s">
         <v>92</v>
       </c>
+      <c r="C55" t="s">
+        <v>521</v>
+      </c>
       <c r="F55">
         <v>1</v>
       </c>
@@ -2778,6 +2838,9 @@
       <c r="B57" t="s">
         <v>93</v>
       </c>
+      <c r="C57" t="s">
+        <v>33</v>
+      </c>
       <c r="F57">
         <v>1</v>
       </c>
@@ -2792,6 +2855,9 @@
       <c r="B58" t="s">
         <v>94</v>
       </c>
+      <c r="C58" t="s">
+        <v>35</v>
+      </c>
       <c r="F58">
         <v>1</v>
       </c>
@@ -2806,6 +2872,9 @@
       <c r="B59" t="s">
         <v>95</v>
       </c>
+      <c r="C59" t="s">
+        <v>522</v>
+      </c>
       <c r="F59">
         <v>1</v>
       </c>
@@ -2820,6 +2889,9 @@
       <c r="B60" t="s">
         <v>96</v>
       </c>
+      <c r="C60" t="s">
+        <v>517</v>
+      </c>
       <c r="F60">
         <v>1</v>
       </c>
@@ -2834,6 +2906,9 @@
       <c r="B61" t="s">
         <v>97</v>
       </c>
+      <c r="C61" t="s">
+        <v>523</v>
+      </c>
       <c r="F61">
         <v>1</v>
       </c>
@@ -2848,6 +2923,9 @@
       <c r="B62" t="s">
         <v>98</v>
       </c>
+      <c r="C62" t="s">
+        <v>516</v>
+      </c>
       <c r="F62">
         <v>1</v>
       </c>
@@ -2875,6 +2953,9 @@
       </c>
       <c r="B64" t="s">
         <v>508</v>
+      </c>
+      <c r="C64" t="s">
+        <v>524</v>
       </c>
       <c r="D64" t="s">
         <v>508</v>
@@ -4866,10 +4947,10 @@
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AMG534"/>
+  <dimension ref="A1:AMG542"/>
   <sheetViews>
-    <sheetView topLeftCell="A470" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A490" sqref="A490:C534"/>
+    <sheetView topLeftCell="A524" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A535" sqref="A535:C542"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.1796875" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -10761,6 +10842,94 @@
         <v>98</v>
       </c>
     </row>
+    <row r="535" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A535" t="s">
+        <v>515</v>
+      </c>
+      <c r="B535" s="4">
+        <v>0</v>
+      </c>
+      <c r="C535">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="536" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A536" t="s">
+        <v>515</v>
+      </c>
+      <c r="B536" s="4">
+        <v>1</v>
+      </c>
+      <c r="C536">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="537" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A537" t="s">
+        <v>515</v>
+      </c>
+      <c r="B537" s="4">
+        <v>2</v>
+      </c>
+      <c r="C537">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="538" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A538" t="s">
+        <v>515</v>
+      </c>
+      <c r="B538" s="4">
+        <v>3</v>
+      </c>
+      <c r="C538">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="539" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A539" t="s">
+        <v>515</v>
+      </c>
+      <c r="B539" s="4">
+        <v>4</v>
+      </c>
+      <c r="C539">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="540" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A540" t="s">
+        <v>515</v>
+      </c>
+      <c r="B540" s="4">
+        <v>5</v>
+      </c>
+      <c r="C540">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="541" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A541" t="s">
+        <v>515</v>
+      </c>
+      <c r="B541">
+        <v>6</v>
+      </c>
+      <c r="C541">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="542" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A542" t="s">
+        <v>515</v>
+      </c>
+      <c r="B542">
+        <v>9</v>
+      </c>
+      <c r="C542">
+        <v>99</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -10773,10 +10942,10 @@
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AMH523"/>
+  <dimension ref="A1:AMH531"/>
   <sheetViews>
-    <sheetView topLeftCell="A468" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A479" sqref="A479:C523"/>
+    <sheetView topLeftCell="A510" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A524" sqref="A524:C531"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.1796875" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -16542,6 +16711,94 @@
         <v>98</v>
       </c>
     </row>
+    <row r="524" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A524" t="s">
+        <v>515</v>
+      </c>
+      <c r="B524" s="4">
+        <v>0</v>
+      </c>
+      <c r="C524">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="525" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A525" t="s">
+        <v>515</v>
+      </c>
+      <c r="B525" s="4">
+        <v>1</v>
+      </c>
+      <c r="C525">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="526" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A526" t="s">
+        <v>515</v>
+      </c>
+      <c r="B526" s="4">
+        <v>2</v>
+      </c>
+      <c r="C526">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="527" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A527" t="s">
+        <v>515</v>
+      </c>
+      <c r="B527" s="4">
+        <v>3</v>
+      </c>
+      <c r="C527">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="528" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A528" t="s">
+        <v>515</v>
+      </c>
+      <c r="B528" s="4">
+        <v>4</v>
+      </c>
+      <c r="C528">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="529" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A529" t="s">
+        <v>515</v>
+      </c>
+      <c r="B529" s="4">
+        <v>5</v>
+      </c>
+      <c r="C529">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="530" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A530" t="s">
+        <v>515</v>
+      </c>
+      <c r="B530">
+        <v>6</v>
+      </c>
+      <c r="C530">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="531" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A531" t="s">
+        <v>515</v>
+      </c>
+      <c r="B531">
+        <v>9</v>
+      </c>
+      <c r="C531">
+        <v>99</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -16554,10 +16811,10 @@
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AMH524"/>
+  <dimension ref="A1:AMH532"/>
   <sheetViews>
-    <sheetView topLeftCell="A466" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A480" sqref="A480:C524"/>
+    <sheetView topLeftCell="A505" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A525" sqref="A525:C532"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.1796875" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -22332,6 +22589,94 @@
       </c>
       <c r="C524">
         <v>98</v>
+      </c>
+    </row>
+    <row r="525" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A525" t="s">
+        <v>515</v>
+      </c>
+      <c r="B525" s="4">
+        <v>0</v>
+      </c>
+      <c r="C525">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="526" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A526" t="s">
+        <v>515</v>
+      </c>
+      <c r="B526" s="4">
+        <v>1</v>
+      </c>
+      <c r="C526">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="527" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A527" t="s">
+        <v>515</v>
+      </c>
+      <c r="B527" s="4">
+        <v>2</v>
+      </c>
+      <c r="C527">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="528" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A528" t="s">
+        <v>515</v>
+      </c>
+      <c r="B528" s="4">
+        <v>3</v>
+      </c>
+      <c r="C528">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="529" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A529" t="s">
+        <v>515</v>
+      </c>
+      <c r="B529" s="4">
+        <v>4</v>
+      </c>
+      <c r="C529">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="530" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A530" t="s">
+        <v>515</v>
+      </c>
+      <c r="B530" s="4">
+        <v>5</v>
+      </c>
+      <c r="C530">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="531" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A531" t="s">
+        <v>515</v>
+      </c>
+      <c r="B531">
+        <v>6</v>
+      </c>
+      <c r="C531">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="532" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A532" t="s">
+        <v>515</v>
+      </c>
+      <c r="B532">
+        <v>9</v>
+      </c>
+      <c r="C532">
+        <v>99</v>
       </c>
     </row>
   </sheetData>
@@ -22420,7 +22765,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B86"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A68" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A68" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
@@ -23132,7 +23477,7 @@
   <dimension ref="A1:AMJ21"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.1796875" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -23323,7 +23668,7 @@
   <dimension ref="A1:AMJ31"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A27" sqref="A27"/>
+      <selection activeCell="B30" sqref="B18:B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.1796875" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>

--- a/widetable/package/mics_dictionary_setcode.xlsx
+++ b/widetable/package/mics_dictionary_setcode.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ado\personal\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\taiku\Documents\GEM UNESCO MBR\GitHub\wide2020\widetable\package\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="605"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="605" firstSheet="12" activeTab="18"/>
   </bookViews>
   <sheets>
     <sheet name="dictionary" sheetId="1" r:id="rId1"/>
@@ -1943,7 +1943,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H64"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
@@ -16813,8 +16813,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AMH532"/>
   <sheetViews>
-    <sheetView topLeftCell="A505" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A525" sqref="A525:C532"/>
+    <sheetView tabSelected="1" topLeftCell="A505" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M514" sqref="M514"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.1796875" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
